--- a/excel_templates/거래처등록_template.xlsx
+++ b/excel_templates/거래처등록_template.xlsx
@@ -1,10 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29231"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E3079E-52E2-41F9-8776-34059FA7110B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="sheet1" state="visible" r:id="rId4"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
@@ -28,105 +32,105 @@
     <t>거래처명 약칭</t>
   </si>
   <si>
+    <t>대표자명</t>
+  </si>
+  <si>
+    <t>사업자등록번호</t>
+  </si>
+  <si>
+    <t>주민등록번호</t>
+  </si>
+  <si>
+    <t>내외국인여부</t>
+  </si>
+  <si>
+    <t>업태</t>
+  </si>
+  <si>
+    <t>업종</t>
+  </si>
+  <si>
+    <t>우편번호</t>
+  </si>
+  <si>
+    <t>주소 상세1</t>
+  </si>
+  <si>
+    <t>주소 상세2</t>
+  </si>
+  <si>
+    <t>전화번호</t>
+  </si>
+  <si>
+    <t>팩스번호</t>
+  </si>
+  <si>
+    <t>홈페이지 주소</t>
+  </si>
+  <si>
+    <t>메일주소</t>
+  </si>
+  <si>
+    <t>주류코드</t>
+  </si>
+  <si>
+    <t>프로젝트코드</t>
+  </si>
+  <si>
+    <t>거래처분류</t>
+  </si>
+  <si>
+    <t>거래처등급</t>
+  </si>
+  <si>
+    <t>수금거래처 코드</t>
+  </si>
+  <si>
+    <t>지역코드</t>
+  </si>
+  <si>
+    <t>외부데이터코드</t>
+  </si>
+  <si>
+    <t>전자세금계산서여부</t>
+  </si>
+  <si>
+    <t>단위신고거래처</t>
+  </si>
+  <si>
+    <t>종사업장번호</t>
+  </si>
+  <si>
+    <t>용도구분</t>
+  </si>
+  <si>
+    <t>비고</t>
+  </si>
+  <si>
+    <t>거래시작일자</t>
+  </si>
+  <si>
+    <t>거래종료일자</t>
+  </si>
+  <si>
+    <t>사용여부</t>
+  </si>
+  <si>
+    <t>거래형태</t>
+  </si>
+  <si>
+    <t>결제기준</t>
+  </si>
+  <si>
+    <t>지급예정일자구분</t>
+  </si>
+  <si>
+    <t>지급예정일자</t>
+  </si>
+  <si>
     <t>관리담당자사원코드</t>
   </si>
   <si>
-    <t>대표자명</t>
-  </si>
-  <si>
-    <t>사업자등록번호</t>
-  </si>
-  <si>
-    <t>주민등록번호</t>
-  </si>
-  <si>
-    <t>내외국인여부</t>
-  </si>
-  <si>
-    <t>업태</t>
-  </si>
-  <si>
-    <t>업종</t>
-  </si>
-  <si>
-    <t>우편번호</t>
-  </si>
-  <si>
-    <t>주소 상세1</t>
-  </si>
-  <si>
-    <t>주소 상세2</t>
-  </si>
-  <si>
-    <t>전화번호</t>
-  </si>
-  <si>
-    <t>팩스번호</t>
-  </si>
-  <si>
-    <t>홈페이지 주소</t>
-  </si>
-  <si>
-    <t>메일주소</t>
-  </si>
-  <si>
-    <t>주류코드</t>
-  </si>
-  <si>
-    <t>프로젝트코드</t>
-  </si>
-  <si>
-    <t>거래처분류</t>
-  </si>
-  <si>
-    <t>거래처등급</t>
-  </si>
-  <si>
-    <t>수금거래처 코드</t>
-  </si>
-  <si>
-    <t>지역코드</t>
-  </si>
-  <si>
-    <t>외부데이터코드</t>
-  </si>
-  <si>
-    <t>전자세금계산서여부</t>
-  </si>
-  <si>
-    <t>단위신고거래처</t>
-  </si>
-  <si>
-    <t>종사업장번호</t>
-  </si>
-  <si>
-    <t>용도구분</t>
-  </si>
-  <si>
-    <t>비고</t>
-  </si>
-  <si>
-    <t>거래시작일자</t>
-  </si>
-  <si>
-    <t>거래종료일자</t>
-  </si>
-  <si>
-    <t>사용여부</t>
-  </si>
-  <si>
-    <t>거래형태</t>
-  </si>
-  <si>
-    <t>결제기준</t>
-  </si>
-  <si>
-    <t>지급예정일자구분</t>
-  </si>
-  <si>
-    <t>지급예정일자</t>
-  </si>
-  <si>
     <t>관리담당자부서코드</t>
   </si>
   <si>
@@ -244,105 +248,105 @@
     <t>ATTR_NM</t>
   </si>
   <si>
+    <t>CEO_NM</t>
+  </si>
+  <si>
+    <t>REG_NB</t>
+  </si>
+  <si>
+    <t>PPL_NB</t>
+  </si>
+  <si>
+    <t>FOR_YN</t>
+  </si>
+  <si>
+    <t>BUSINESS</t>
+  </si>
+  <si>
+    <t>JONGMOK</t>
+  </si>
+  <si>
+    <t>ZIP</t>
+  </si>
+  <si>
+    <t>DIV_ADDR1</t>
+  </si>
+  <si>
+    <t>ADDR2</t>
+  </si>
+  <si>
+    <t>TEL</t>
+  </si>
+  <si>
+    <t>FAX</t>
+  </si>
+  <si>
+    <t>HOMEPAGE</t>
+  </si>
+  <si>
+    <t>EMAIL</t>
+  </si>
+  <si>
+    <t>LIQ_RS</t>
+  </si>
+  <si>
+    <t>PJT_CD</t>
+  </si>
+  <si>
+    <t>TRGRP_CD</t>
+  </si>
+  <si>
+    <t>TRRAT_FG</t>
+  </si>
+  <si>
+    <t>CLTTR_CD</t>
+  </si>
+  <si>
+    <t>LOCAL_CD</t>
+  </si>
+  <si>
+    <t>LINK_CD</t>
+  </si>
+  <si>
+    <t>JEONJA_YN</t>
+  </si>
+  <si>
+    <t>REPTR_CD</t>
+  </si>
+  <si>
+    <t>APPR_NB</t>
+  </si>
+  <si>
+    <t>LIQ_FG</t>
+  </si>
+  <si>
+    <t>REMARK_DC</t>
+  </si>
+  <si>
+    <t>INTER_DT</t>
+  </si>
+  <si>
+    <t>DUE_DT</t>
+  </si>
+  <si>
+    <t>USE_YN</t>
+  </si>
+  <si>
+    <t>TRSO_FG</t>
+  </si>
+  <si>
+    <t>PAYCON_DC</t>
+  </si>
+  <si>
+    <t>DOUDATE1_FG</t>
+  </si>
+  <si>
+    <t>DOUDATE1_DD</t>
+  </si>
+  <si>
     <t>EMP_CD</t>
   </si>
   <si>
-    <t>CEO_NM</t>
-  </si>
-  <si>
-    <t>REG_NB</t>
-  </si>
-  <si>
-    <t>PPL_NB</t>
-  </si>
-  <si>
-    <t>FOR_YN</t>
-  </si>
-  <si>
-    <t>BUSINESS</t>
-  </si>
-  <si>
-    <t>JONGMOK</t>
-  </si>
-  <si>
-    <t>ZIP</t>
-  </si>
-  <si>
-    <t>DIV_ADDR1</t>
-  </si>
-  <si>
-    <t>ADDR2</t>
-  </si>
-  <si>
-    <t>TEL</t>
-  </si>
-  <si>
-    <t>FAX</t>
-  </si>
-  <si>
-    <t>HOMEPAGE</t>
-  </si>
-  <si>
-    <t>EMAIL</t>
-  </si>
-  <si>
-    <t>LIQ_RS</t>
-  </si>
-  <si>
-    <t>PJT_CD</t>
-  </si>
-  <si>
-    <t>TRGRP_CD</t>
-  </si>
-  <si>
-    <t>TRRAT_FG</t>
-  </si>
-  <si>
-    <t>CLTTR_CD</t>
-  </si>
-  <si>
-    <t>LOCAL_CD</t>
-  </si>
-  <si>
-    <t>LINK_CD</t>
-  </si>
-  <si>
-    <t>JEONJA_YN</t>
-  </si>
-  <si>
-    <t>REPTR_CD</t>
-  </si>
-  <si>
-    <t>APPR_NB</t>
-  </si>
-  <si>
-    <t>LIQ_FG</t>
-  </si>
-  <si>
-    <t>REMARK_DC</t>
-  </si>
-  <si>
-    <t>INTER_DT</t>
-  </si>
-  <si>
-    <t>DUE_DT</t>
-  </si>
-  <si>
-    <t>USE_YN</t>
-  </si>
-  <si>
-    <t>TRSO_FG</t>
-  </si>
-  <si>
-    <t>PAYCON_DC</t>
-  </si>
-  <si>
-    <t>DOUDATE1_FG</t>
-  </si>
-  <si>
-    <t>DOUDATE1_DD</t>
-  </si>
-  <si>
     <t>DEPT_CD</t>
   </si>
   <si>
@@ -460,28 +464,28 @@
     <t>타입 : 문자 길이 : 60 필수 : True 설명 : 모든 물류 코드 도움에서는 ATTR_NM 을 조회하므로 입력하세요</t>
   </si>
   <si>
+    <t xml:space="preserve">타입 : 문자 길이 : 30 필수 : False 설명 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">타입 : 문자 길이 : 20 필수 : False 설명 : </t>
+  </si>
+  <si>
+    <t>타입 : 문자 길이 : 1 필수 : False 설명 : 0. 내국인 1. 외국인</t>
+  </si>
+  <si>
+    <t xml:space="preserve">타입 : 문자 길이 : 40 필수 : False 설명 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">타입 : 문자 길이 : 7 필수 : False 설명 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">타입 : 문자 길이 : 60 필수 : False 설명 : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">타입 : 문자 길이 : 1 필수 : False 설명 : </t>
+  </si>
+  <si>
     <t xml:space="preserve">타입 : 문자 길이 : 10 필수 : False 설명 : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">타입 : 문자 길이 : 30 필수 : False 설명 : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">타입 : 문자 길이 : 20 필수 : False 설명 : </t>
-  </si>
-  <si>
-    <t>타입 : 문자 길이 : 1 필수 : False 설명 : 0. 내국인 1. 외국인</t>
-  </si>
-  <si>
-    <t xml:space="preserve">타입 : 문자 길이 : 40 필수 : False 설명 : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">타입 : 문자 길이 : 7 필수 : False 설명 : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">타입 : 문자 길이 : 60 필수 : False 설명 : </t>
-  </si>
-  <si>
-    <t xml:space="preserve">타입 : 문자 길이 : 1 필수 : False 설명 : </t>
   </si>
   <si>
     <t xml:space="preserve">타입 : 문자 길이 : 4 필수 : False 설명 : </t>
@@ -547,20 +551,33 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <sz val="9"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -584,8 +601,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFd3d3d3"/>
-        <bgColor rgb="FFd3d3d3"/>
+        <fgColor rgb="FFD3D3D3"/>
+        <bgColor rgb="FFD3D3D3"/>
       </patternFill>
     </fill>
   </fills>
@@ -631,7 +648,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -967,15 +984,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BT3"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="5" width="20" style="1" customWidth="1"/>
     <col min="6" max="72" width="20" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="19" customHeight="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:72" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="2" ht="19" customHeight="1" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:72" ht="18.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>72</v>
       </c>
@@ -1411,7 +1433,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="3" spans="1:72" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:72" ht="67.5" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>144</v>
       </c>
@@ -1434,7 +1456,7 @@
         <v>150</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>151</v>
@@ -1443,7 +1465,7 @@
         <v>152</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="L3" s="5" t="s">
         <v>153</v>
@@ -1452,121 +1474,121 @@
         <v>154</v>
       </c>
       <c r="N3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="P3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="R3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="S3" s="5" t="s">
         <v>155</v>
-      </c>
-      <c r="O3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="P3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q3" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="R3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="S3" s="5" t="s">
-        <v>153</v>
       </c>
       <c r="T3" s="5" t="s">
         <v>156</v>
       </c>
       <c r="U3" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="V3" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="W3" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="X3" s="5" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="Y3" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z3" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="AA3" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="AB3" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="Z3" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="AA3" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="AB3" s="5" t="s">
-        <v>151</v>
-      </c>
       <c r="AC3" s="5" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AD3" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="AE3" s="5" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AF3" s="5" t="s">
         <v>161</v>
       </c>
       <c r="AG3" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AH3" s="5" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AI3" s="5" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="AJ3" s="5" t="s">
-        <v>153</v>
+        <v>164</v>
       </c>
       <c r="AK3" s="5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AL3" s="5" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="AM3" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AN3" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="AN3" s="5" t="s">
+      <c r="AO3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="AP3" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="AO3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP3" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="AQ3" s="5" t="s">
         <v>166</v>
       </c>
       <c r="AR3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AS3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="AT3" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="AU3" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="AT3" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="AU3" s="5" t="s">
+      <c r="AV3" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="AV3" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="AW3" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AX3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AY3" s="5" t="s">
         <v>167</v>
       </c>
       <c r="AZ3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BA3" s="5" t="s">
         <v>168</v>
@@ -1575,28 +1597,28 @@
         <v>169</v>
       </c>
       <c r="BC3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BD3" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="BE3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BF3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BG3" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="BH3" s="5" t="s">
         <v>150</v>
-      </c>
-      <c r="BD3" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="BE3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BF3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BG3" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="BH3" s="5" t="s">
-        <v>151</v>
       </c>
       <c r="BI3" s="5" t="s">
         <v>166</v>
       </c>
       <c r="BJ3" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="BK3" s="5" t="s">
         <v>170</v>
@@ -1605,7 +1627,7 @@
         <v>171</v>
       </c>
       <c r="BM3" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BN3" s="5" t="s">
         <v>172</v>
@@ -1617,7 +1639,7 @@
         <v>174</v>
       </c>
       <c r="BQ3" s="5" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="BR3" s="5" t="s">
         <v>175</v>
@@ -1630,7 +1652,8 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>